--- a/Requirements/Product backlog.xlsx
+++ b/Requirements/Product backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826B6916-031B-41D3-B980-24E6D03706D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B098977-D5D7-44B1-9DBD-99C7AF59007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{45F45705-03A7-4F51-8DC3-35317A2FF286}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45F45705-03A7-4F51-8DC3-35317A2FF286}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
-  <si>
-    <t xml:space="preserve">Product Backlog sample for Social media application </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -330,17 +327,17 @@
     <t>Fast loading, optimized for mobile browsers.</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Pending</t>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Backlog </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,11 +756,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FE552F-F958-42BB-825B-50E36832F55D}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -778,9 +775,9 @@
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -791,535 +788,565 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="55.7" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" ht="90">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="J3" s="2">
         <v>5</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="105">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="J4" s="2">
         <v>4</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="K4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="105">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="J5" s="2">
         <v>7</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="K5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="105">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="J6" s="2">
         <v>6</v>
       </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="90">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="J7" s="2">
         <v>5</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="105">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="J8" s="2">
         <v>6</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="K8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="75">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="J9" s="2">
         <v>4</v>
       </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="K9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="90">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="J10" s="2">
         <v>5</v>
       </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="75">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="J11" s="2">
         <v>3</v>
       </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="90">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="J12" s="2">
         <v>4</v>
       </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="75">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="J13" s="2">
         <v>4</v>
       </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="90">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J14" s="2">
         <v>5</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="K14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="75">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="J15" s="2">
         <v>7</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="K15" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="90">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="J16" s="2">
         <v>3</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="K16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="75">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="J17" s="2">
         <v>5</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:I2" xr:uid="{62FE552F-F958-42BB-825B-50E36832F55D}"/>
@@ -1327,6 +1354,6 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="58" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>